--- a/report/Report.xlsx
+++ b/report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -35,16 +35,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>1.3.5</t>
-  </si>
-  <si>
-    <t>2017/11/21 09:00</t>
-  </si>
-  <si>
-    <t>2017-11-30 15:37:35</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>2017/12/4 13:00</t>
+  </si>
+  <si>
+    <t>2017-12-13 17:35:28</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,21 +59,30 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>43秒</t>
+    <t>51秒</t>
   </si>
   <si>
     <t>脚本语言</t>
   </si>
   <si>
-    <t>appium+python3</t>
+    <t>appium1.7+python3</t>
+  </si>
+  <si>
+    <t>机型</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>HUAWEI_CARRERA_android_6.0</t>
   </si>
   <si>
     <t>测试详情</t>
   </si>
   <si>
-    <t>机型</t>
-  </si>
-  <si>
     <t>用例ID</t>
   </si>
   <si>
@@ -101,50 +110,48 @@
     <t>截图</t>
   </si>
   <si>
-    <t>HUAWEI_EVA_android_6.0</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>知识首页下拉刷新</t>
-  </si>
-  <si>
-    <t>testAHomeSwipeDown</t>
+    <t>test019</t>
+  </si>
+  <si>
+    <t>拖动排序知识卡片</t>
+  </si>
+  <si>
+    <t>testASortCard</t>
   </si>
   <si>
     <t>打开知识</t>
   </si>
   <si>
-    <t xml:space="preserve">检查页面加载完成
-下拉刷新
+    <t xml:space="preserve">点击排序卡片按钮
+得到第二个卡片的值
+得到第一卡片的坐标
+得到第二个卡片的坐标并拖动
+点击返回按钮
 </t>
   </si>
   <si>
-    <t xml:space="preserve">下拉刷新按钮不存在
+    <t xml:space="preserve">检测卡片是否排序成功
 </t>
   </si>
   <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>test005</t>
-  </si>
-  <si>
-    <t>banner浏览历史</t>
-  </si>
-  <si>
-    <t>testBannerHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击banner图片
-得到详情页标题值
+    <t>test020</t>
+  </si>
+  <si>
+    <t>卡片列表下删除卡片</t>
+  </si>
+  <si>
+    <t>testDelCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击排序卡片按钮
+得到第一个卡片的值
+点击删除按钮
+确认删除卡片
 点击返回按钮
-点击首页历史记录按钮
 </t>
   </si>
   <si>
-    <t xml:space="preserve">存在历史记录
+    <t xml:space="preserve">检测卡片是否删除成功
 </t>
   </si>
 </sst>
@@ -351,7 +358,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -659,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,6 +760,29 @@
         <v>14</v>
       </c>
       <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1"/>
+    <row r="8" spans="1:5" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -787,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -801,88 +831,88 @@
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
